--- a/templates/AutomationOrg/RMA Complete Flow(Issue Credit)-SO TO RMA Receipt To Create Credit Memo.xlsx
+++ b/templates/AutomationOrg/RMA Complete Flow(Issue Credit)-SO TO RMA Receipt To Create Credit Memo.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="318">
   <si>
     <t>API Mode</t>
   </si>
@@ -942,6 +942,60 @@
   </si>
   <si>
     <t>RMA-TYCL-1-3</t>
+  </si>
+  <si>
+    <t>RMA-BR6P-001</t>
+  </si>
+  <si>
+    <t>RMA-BR6P-002</t>
+  </si>
+  <si>
+    <t>RMA-BR6P-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLELAA2</t>
+  </si>
+  <si>
+    <t>RMA-BR6P-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLEMAA2</t>
+  </si>
+  <si>
+    <t>RMA-BR6P-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLENAA2</t>
+  </si>
+  <si>
+    <t>RMA-BR6P-1-3</t>
+  </si>
+  <si>
+    <t>RMA-CFAT-001</t>
+  </si>
+  <si>
+    <t>RMA-CFAT-002</t>
+  </si>
+  <si>
+    <t>RMA-CFAT-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLLHAA2</t>
+  </si>
+  <si>
+    <t>RMA-CFAT-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLLIAA2</t>
+  </si>
+  <si>
+    <t>RMA-CFAT-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLLJAA2</t>
+  </si>
+  <si>
+    <t>RMA-CFAT-1-3</t>
   </si>
 </sst>
 </file>
@@ -951,7 +1005,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="315" x14ac:knownFonts="1">
+  <fonts count="339" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -971,6 +1025,150 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -2853,7 +3051,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="157">
+  <borders count="169">
     <border>
       <left/>
       <right/>
@@ -3329,11 +3527,47 @@
     <border>
       <bottom style="thin"/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="315">
+  <cellXfs count="339">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
@@ -3647,8 +3881,32 @@
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="154" fillId="0" fontId="310" numFmtId="49" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="311" numFmtId="164" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="155" fillId="0" fontId="312" numFmtId="49" xfId="0"/>
-    <xf numFmtId="164" fontId="313" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="314" fillId="0" borderId="156" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="313" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="156" fillId="0" fontId="314" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="315" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="157" fillId="0" fontId="316" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="317" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="158" fillId="0" fontId="318" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="319" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="159" fillId="0" fontId="320" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="321" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="160" fillId="0" fontId="322" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="323" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="161" fillId="0" fontId="324" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="325" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="162" fillId="0" fontId="326" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="327" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="163" fillId="0" fontId="328" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="329" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="164" fillId="0" fontId="330" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="331" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="165" fillId="0" fontId="332" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="333" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="166" fillId="0" fontId="334" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="335" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="167" fillId="0" fontId="336" numFmtId="49" xfId="0"/>
+    <xf numFmtId="164" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="338" fillId="0" borderId="168" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -4436,11 +4694,11 @@
     <col min="3" max="3" bestFit="true" customWidth="true" width="19.2265625" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="20.5078125" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="15.4765625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="13.875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="14.1640625" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="11.4921875" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="11.453125" collapsed="true"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="14.515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="21.37109375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="20.375" collapsed="true"/>
     <col min="11" max="12" bestFit="true" customWidth="true" width="21.21875" collapsed="true"/>
   </cols>
   <sheetData>
@@ -4490,10 +4748,10 @@
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>291</v>
+        <v>309</v>
       </c>
       <c r="F2" t="s">
-        <v>295</v>
+        <v>313</v>
       </c>
       <c r="G2" t="s">
         <v>68</v>
@@ -4502,7 +4760,7 @@
         <v>37</v>
       </c>
       <c r="J2" t="s">
-        <v>294</v>
+        <v>312</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -4519,10 +4777,10 @@
         <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>292</v>
+        <v>310</v>
       </c>
       <c r="F3" t="s">
-        <v>297</v>
+        <v>315</v>
       </c>
       <c r="G3" t="s">
         <v>68</v>
@@ -4531,7 +4789,7 @@
         <v>37</v>
       </c>
       <c r="J3" t="s">
-        <v>296</v>
+        <v>314</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -4548,10 +4806,10 @@
         <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>293</v>
+        <v>311</v>
       </c>
       <c r="F4" t="s">
-        <v>299</v>
+        <v>317</v>
       </c>
       <c r="G4" t="s">
         <v>68</v>
@@ -4560,7 +4818,7 @@
         <v>37</v>
       </c>
       <c r="J4" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
     </row>
   </sheetData>

--- a/templates/AutomationOrg/RMA Complete Flow(Issue Credit)-SO TO RMA Receipt To Create Credit Memo.xlsx
+++ b/templates/AutomationOrg/RMA Complete Flow(Issue Credit)-SO TO RMA Receipt To Create Credit Memo.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="327">
   <si>
     <t>API Mode</t>
   </si>
@@ -996,6 +996,33 @@
   </si>
   <si>
     <t>RMA-CFAT-1-3</t>
+  </si>
+  <si>
+    <t>RMA-JLO6-001</t>
+  </si>
+  <si>
+    <t>RMA-JLO6-002</t>
+  </si>
+  <si>
+    <t>RMA-JLO6-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLQCAA2</t>
+  </si>
+  <si>
+    <t>RMA-JLO6-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLQDAA2</t>
+  </si>
+  <si>
+    <t>RMA-JLO6-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLQEAA2</t>
+  </si>
+  <si>
+    <t>RMA-JLO6-1-3</t>
   </si>
 </sst>
 </file>
@@ -1005,7 +1032,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="339" x14ac:knownFonts="1">
+  <fonts count="351" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1025,6 +1052,78 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -3051,7 +3150,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="169">
+  <borders count="175">
     <border>
       <left/>
       <right/>
@@ -3563,11 +3662,29 @@
     <border>
       <bottom style="thin"/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="339">
+  <cellXfs count="351">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
@@ -3905,8 +4022,20 @@
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="166" fillId="0" fontId="334" numFmtId="49" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="335" numFmtId="164" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="167" fillId="0" fontId="336" numFmtId="49" xfId="0"/>
-    <xf numFmtId="164" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="338" fillId="0" borderId="168" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="337" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="168" fillId="0" fontId="338" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="339" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="169" fillId="0" fontId="340" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="341" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="170" fillId="0" fontId="342" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="343" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="171" fillId="0" fontId="344" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="345" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="172" fillId="0" fontId="346" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="347" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="173" fillId="0" fontId="348" numFmtId="49" xfId="0"/>
+    <xf numFmtId="164" fontId="349" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="350" fillId="0" borderId="174" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -4694,11 +4823,11 @@
     <col min="3" max="3" bestFit="true" customWidth="true" width="19.2265625" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="20.5078125" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="15.4765625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="14.1640625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.83203125" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="11.4921875" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="11.453125" collapsed="true"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="14.515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="20.375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="20.9140625" collapsed="true"/>
     <col min="11" max="12" bestFit="true" customWidth="true" width="21.21875" collapsed="true"/>
   </cols>
   <sheetData>
@@ -4748,10 +4877,10 @@
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="F2" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="G2" t="s">
         <v>68</v>
@@ -4760,7 +4889,7 @@
         <v>37</v>
       </c>
       <c r="J2" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -4777,10 +4906,10 @@
         <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="F3" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="G3" t="s">
         <v>68</v>
@@ -4789,7 +4918,7 @@
         <v>37</v>
       </c>
       <c r="J3" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -4806,10 +4935,10 @@
         <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="F4" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="G4" t="s">
         <v>68</v>
@@ -4818,7 +4947,7 @@
         <v>37</v>
       </c>
       <c r="J4" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
     </row>
   </sheetData>

--- a/templates/AutomationOrg/RMA Complete Flow(Issue Credit)-SO TO RMA Receipt To Create Credit Memo.xlsx
+++ b/templates/AutomationOrg/RMA Complete Flow(Issue Credit)-SO TO RMA Receipt To Create Credit Memo.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="336">
   <si>
     <t>API Mode</t>
   </si>
@@ -1023,6 +1023,33 @@
   </si>
   <si>
     <t>RMA-JLO6-1-3</t>
+  </si>
+  <si>
+    <t>RMA-OQMG-001</t>
+  </si>
+  <si>
+    <t>RMA-OQMG-002</t>
+  </si>
+  <si>
+    <t>RMA-OQMG-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLRoAAM</t>
+  </si>
+  <si>
+    <t>RMA-OQMG-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLRpAAM</t>
+  </si>
+  <si>
+    <t>RMA-OQMG-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLRqAAM</t>
+  </si>
+  <si>
+    <t>RMA-OQMG-1-3</t>
   </si>
 </sst>
 </file>
@@ -1032,7 +1059,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="351" x14ac:knownFonts="1">
+  <fonts count="363" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1052,6 +1079,78 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -3150,7 +3249,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="175">
+  <borders count="181">
     <border>
       <left/>
       <right/>
@@ -3680,11 +3779,29 @@
     <border>
       <bottom style="thin"/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="351">
+  <cellXfs count="363">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
@@ -4034,8 +4151,20 @@
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="172" fillId="0" fontId="346" numFmtId="49" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="347" numFmtId="164" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="173" fillId="0" fontId="348" numFmtId="49" xfId="0"/>
-    <xf numFmtId="164" fontId="349" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="350" fillId="0" borderId="174" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="349" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="174" fillId="0" fontId="350" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="351" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="175" fillId="0" fontId="352" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="353" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="176" fillId="0" fontId="354" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="355" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="177" fillId="0" fontId="356" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="357" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="178" fillId="0" fontId="358" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="359" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="179" fillId="0" fontId="360" numFmtId="49" xfId="0"/>
+    <xf numFmtId="164" fontId="361" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="362" fillId="0" borderId="180" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -4822,12 +4951,12 @@
     <col min="2" max="2" bestFit="true" customWidth="true" width="39.7578125" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="19.2265625" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="20.5078125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="15.4765625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="13.83203125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="16.28125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="15.83984375" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="11.4921875" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="11.453125" collapsed="true"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="14.515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="20.9140625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="21.19921875" collapsed="true"/>
     <col min="11" max="12" bestFit="true" customWidth="true" width="21.21875" collapsed="true"/>
   </cols>
   <sheetData>
@@ -4877,10 +5006,10 @@
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="F2" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="G2" t="s">
         <v>68</v>
@@ -4889,7 +5018,7 @@
         <v>37</v>
       </c>
       <c r="J2" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -4906,10 +5035,10 @@
         <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="F3" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="G3" t="s">
         <v>68</v>
@@ -4918,7 +5047,7 @@
         <v>37</v>
       </c>
       <c r="J3" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -4935,10 +5064,10 @@
         <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="F4" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="G4" t="s">
         <v>68</v>
@@ -4947,7 +5076,7 @@
         <v>37</v>
       </c>
       <c r="J4" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
     </row>
   </sheetData>

--- a/templates/AutomationOrg/RMA Complete Flow(Issue Credit)-SO TO RMA Receipt To Create Credit Memo.xlsx
+++ b/templates/AutomationOrg/RMA Complete Flow(Issue Credit)-SO TO RMA Receipt To Create Credit Memo.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="372">
   <si>
     <t>API Mode</t>
   </si>
@@ -1050,6 +1050,114 @@
   </si>
   <si>
     <t>RMA-OQMG-1-3</t>
+  </si>
+  <si>
+    <t>RMA-VUEM-001</t>
+  </si>
+  <si>
+    <t>RMA-VUEM-002</t>
+  </si>
+  <si>
+    <t>RMA-VUEM-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLS8AAM</t>
+  </si>
+  <si>
+    <t>RMA-VUEM-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLS9AAM</t>
+  </si>
+  <si>
+    <t>RMA-VUEM-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLSAAA2</t>
+  </si>
+  <si>
+    <t>RMA-VUEM-1-3</t>
+  </si>
+  <si>
+    <t>RMA-F0ZN-001</t>
+  </si>
+  <si>
+    <t>RMA-F0ZN-002</t>
+  </si>
+  <si>
+    <t>RMA-F0ZN-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLSDAA2</t>
+  </si>
+  <si>
+    <t>RMA-F0ZN-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLSEAA2</t>
+  </si>
+  <si>
+    <t>RMA-F0ZN-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLSFAA2</t>
+  </si>
+  <si>
+    <t>RMA-F0ZN-1-3</t>
+  </si>
+  <si>
+    <t>RMA-8MM4-001</t>
+  </si>
+  <si>
+    <t>RMA-8MM4-002</t>
+  </si>
+  <si>
+    <t>RMA-8MM4-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLSIAA2</t>
+  </si>
+  <si>
+    <t>RMA-8MM4-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLSJAA2</t>
+  </si>
+  <si>
+    <t>RMA-8MM4-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLSKAA2</t>
+  </si>
+  <si>
+    <t>RMA-8MM4-1-3</t>
+  </si>
+  <si>
+    <t>RMA-FI09-001</t>
+  </si>
+  <si>
+    <t>RMA-FI09-002</t>
+  </si>
+  <si>
+    <t>RMA-FI09-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLScAAM</t>
+  </si>
+  <si>
+    <t>RMA-FI09-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLSdAAM</t>
+  </si>
+  <si>
+    <t>RMA-FI09-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLSeAAM</t>
+  </si>
+  <si>
+    <t>RMA-FI09-1-3</t>
   </si>
 </sst>
 </file>
@@ -1059,7 +1167,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="363" x14ac:knownFonts="1">
+  <fonts count="411" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1079,6 +1187,294 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -3249,7 +3645,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="181">
+  <borders count="205">
     <border>
       <left/>
       <right/>
@@ -3797,11 +4193,83 @@
     <border>
       <bottom style="thin"/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="363">
+  <cellXfs count="411">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
@@ -4163,8 +4631,56 @@
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="178" fillId="0" fontId="358" numFmtId="49" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="359" numFmtId="164" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="179" fillId="0" fontId="360" numFmtId="49" xfId="0"/>
-    <xf numFmtId="164" fontId="361" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="362" fillId="0" borderId="180" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="361" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="180" fillId="0" fontId="362" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="363" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="181" fillId="0" fontId="364" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="365" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="182" fillId="0" fontId="366" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="367" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="183" fillId="0" fontId="368" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="369" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="184" fillId="0" fontId="370" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="371" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="185" fillId="0" fontId="372" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="373" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="186" fillId="0" fontId="374" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="375" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="187" fillId="0" fontId="376" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="377" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="188" fillId="0" fontId="378" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="379" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="189" fillId="0" fontId="380" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="381" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="190" fillId="0" fontId="382" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="383" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="191" fillId="0" fontId="384" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="385" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="192" fillId="0" fontId="386" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="387" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="193" fillId="0" fontId="388" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="389" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="194" fillId="0" fontId="390" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="391" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="195" fillId="0" fontId="392" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="393" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="196" fillId="0" fontId="394" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="395" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="197" fillId="0" fontId="396" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="397" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="198" fillId="0" fontId="398" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="399" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="199" fillId="0" fontId="400" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="401" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="200" fillId="0" fontId="402" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="403" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="201" fillId="0" fontId="404" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="405" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="202" fillId="0" fontId="406" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="407" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="203" fillId="0" fontId="408" numFmtId="49" xfId="0"/>
+    <xf numFmtId="164" fontId="409" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="410" fillId="0" borderId="204" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -4951,12 +5467,12 @@
     <col min="2" max="2" bestFit="true" customWidth="true" width="39.7578125" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="19.2265625" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="20.5078125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="16.28125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="15.83984375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="15.4765625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.4296875" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="11.4921875" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="11.453125" collapsed="true"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="14.515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="21.19921875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="21.01171875" collapsed="true"/>
     <col min="11" max="12" bestFit="true" customWidth="true" width="21.21875" collapsed="true"/>
   </cols>
   <sheetData>
@@ -5006,10 +5522,10 @@
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>327</v>
+        <v>363</v>
       </c>
       <c r="F2" t="s">
-        <v>331</v>
+        <v>367</v>
       </c>
       <c r="G2" t="s">
         <v>68</v>
@@ -5018,7 +5534,7 @@
         <v>37</v>
       </c>
       <c r="J2" t="s">
-        <v>330</v>
+        <v>366</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -5035,10 +5551,10 @@
         <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>328</v>
+        <v>364</v>
       </c>
       <c r="F3" t="s">
-        <v>333</v>
+        <v>369</v>
       </c>
       <c r="G3" t="s">
         <v>68</v>
@@ -5047,7 +5563,7 @@
         <v>37</v>
       </c>
       <c r="J3" t="s">
-        <v>332</v>
+        <v>368</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -5064,10 +5580,10 @@
         <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>329</v>
+        <v>365</v>
       </c>
       <c r="F4" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
       <c r="G4" t="s">
         <v>68</v>
@@ -5076,7 +5592,7 @@
         <v>37</v>
       </c>
       <c r="J4" t="s">
-        <v>334</v>
+        <v>370</v>
       </c>
     </row>
   </sheetData>
